--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Egf-Erbb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Egf-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,123 +519,557 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.296694669524573</v>
+        <v>0.06368266666666667</v>
       </c>
       <c r="H2">
-        <v>0.296694669524573</v>
+        <v>0.191048</v>
       </c>
       <c r="I2">
-        <v>0.4798100817368435</v>
+        <v>0.07976548992723123</v>
       </c>
       <c r="J2">
-        <v>0.4798100817368435</v>
+        <v>0.07976548992723123</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.9586940635873</v>
+        <v>0.2167736666666666</v>
       </c>
       <c r="N2">
-        <v>2.9586940635873</v>
+        <v>0.6503209999999999</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.06003183809373913</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.06003183809373914</v>
       </c>
       <c r="Q2">
-        <v>0.8778287574203499</v>
+        <v>0.01380472515644444</v>
       </c>
       <c r="R2">
-        <v>0.8778287574203499</v>
+        <v>0.124242526408</v>
       </c>
       <c r="S2">
-        <v>0.4798100817368435</v>
+        <v>0.004788468976779325</v>
       </c>
       <c r="T2">
-        <v>0.4798100817368435</v>
+        <v>0.004788468976779326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.06368266666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.191048</v>
+      </c>
+      <c r="I3">
+        <v>0.07976548992723123</v>
+      </c>
+      <c r="J3">
+        <v>0.07976548992723123</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.3460976666666666</v>
+      </c>
+      <c r="N3">
+        <v>1.038293</v>
+      </c>
+      <c r="O3">
+        <v>0.09584595495126666</v>
+      </c>
+      <c r="P3">
+        <v>0.09584595495126667</v>
+      </c>
+      <c r="Q3">
+        <v>0.02204042234044444</v>
+      </c>
+      <c r="R3">
+        <v>0.198363801064</v>
+      </c>
+      <c r="S3">
+        <v>0.007645199554231119</v>
+      </c>
+      <c r="T3">
+        <v>0.00764519955423112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.06368266666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.191048</v>
+      </c>
+      <c r="I4">
+        <v>0.07976548992723123</v>
+      </c>
+      <c r="J4">
+        <v>0.07976548992723123</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="M4">
+        <v>3.048107</v>
+      </c>
+      <c r="N4">
+        <v>9.144321</v>
+      </c>
+      <c r="O4">
+        <v>0.8441222069549942</v>
+      </c>
+      <c r="P4">
+        <v>0.8441222069549942</v>
+      </c>
+      <c r="Q4">
+        <v>0.1941115820453333</v>
+      </c>
+      <c r="R4">
+        <v>1.747004238408</v>
+      </c>
+      <c r="S4">
+        <v>0.06733182139622078</v>
+      </c>
+      <c r="T4">
+        <v>0.06733182139622078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>0.321663886949649</v>
-      </c>
-      <c r="H3">
-        <v>0.321663886949649</v>
-      </c>
-      <c r="I3">
-        <v>0.5201899182631565</v>
-      </c>
-      <c r="J3">
-        <v>0.5201899182631565</v>
-      </c>
-      <c r="K3">
+      <c r="G5">
+        <v>0.3966103333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.189831</v>
+      </c>
+      <c r="I5">
+        <v>0.4967728144006086</v>
+      </c>
+      <c r="J5">
+        <v>0.4967728144006086</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.2167736666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.6503209999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.06003183809373913</v>
+      </c>
+      <c r="P5">
+        <v>0.06003183809373914</v>
+      </c>
+      <c r="Q5">
+        <v>0.08597467619455555</v>
+      </c>
+      <c r="R5">
+        <v>0.773772085751</v>
+      </c>
+      <c r="S5">
+        <v>0.02982218516346846</v>
+      </c>
+      <c r="T5">
+        <v>0.02982218516346846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="G6">
+        <v>0.3966103333333333</v>
+      </c>
+      <c r="H6">
+        <v>1.189831</v>
+      </c>
+      <c r="I6">
+        <v>0.4967728144006086</v>
+      </c>
+      <c r="J6">
+        <v>0.4967728144006086</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.3460976666666666</v>
+      </c>
+      <c r="N6">
+        <v>1.038293</v>
+      </c>
+      <c r="O6">
+        <v>0.09584595495126666</v>
+      </c>
+      <c r="P6">
+        <v>0.09584595495126667</v>
+      </c>
+      <c r="Q6">
+        <v>0.1372659109425556</v>
+      </c>
+      <c r="R6">
+        <v>1.235393198483</v>
+      </c>
+      <c r="S6">
+        <v>0.04761366479005469</v>
+      </c>
+      <c r="T6">
+        <v>0.0476136647900547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>2.9586940635873</v>
-      </c>
-      <c r="N3">
-        <v>2.9586940635873</v>
-      </c>
-      <c r="O3">
+      <c r="G7">
+        <v>0.3966103333333333</v>
+      </c>
+      <c r="H7">
+        <v>1.189831</v>
+      </c>
+      <c r="I7">
+        <v>0.4967728144006086</v>
+      </c>
+      <c r="J7">
+        <v>0.4967728144006086</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="M7">
+        <v>3.048107</v>
+      </c>
+      <c r="N7">
+        <v>9.144321</v>
+      </c>
+      <c r="O7">
+        <v>0.8441222069549942</v>
+      </c>
+      <c r="P7">
+        <v>0.8441222069549942</v>
+      </c>
+      <c r="Q7">
+        <v>1.208910733305667</v>
+      </c>
+      <c r="R7">
+        <v>10.880196599751</v>
+      </c>
+      <c r="S7">
+        <v>0.4193369644470855</v>
+      </c>
+      <c r="T7">
+        <v>0.4193369644470855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>0.9517050327883427</v>
-      </c>
-      <c r="R3">
-        <v>0.9517050327883427</v>
-      </c>
-      <c r="S3">
-        <v>0.5201899182631565</v>
-      </c>
-      <c r="T3">
-        <v>0.5201899182631565</v>
+      <c r="G8">
+        <v>0.3380806666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.014242</v>
+      </c>
+      <c r="I8">
+        <v>0.4234616956721602</v>
+      </c>
+      <c r="J8">
+        <v>0.4234616956721601</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.2167736666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.6503209999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.06003183809373913</v>
+      </c>
+      <c r="P8">
+        <v>0.06003183809373914</v>
+      </c>
+      <c r="Q8">
+        <v>0.07328698574244442</v>
+      </c>
+      <c r="R8">
+        <v>0.6595828716819998</v>
+      </c>
+      <c r="S8">
+        <v>0.02542118395349135</v>
+      </c>
+      <c r="T8">
+        <v>0.02542118395349135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.3380806666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.014242</v>
+      </c>
+      <c r="I9">
+        <v>0.4234616956721602</v>
+      </c>
+      <c r="J9">
+        <v>0.4234616956721601</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3460976666666666</v>
+      </c>
+      <c r="N9">
+        <v>1.038293</v>
+      </c>
+      <c r="O9">
+        <v>0.09584595495126666</v>
+      </c>
+      <c r="P9">
+        <v>0.09584595495126667</v>
+      </c>
+      <c r="Q9">
+        <v>0.1170089298784444</v>
+      </c>
+      <c r="R9">
+        <v>1.053080368906</v>
+      </c>
+      <c r="S9">
+        <v>0.04058709060698085</v>
+      </c>
+      <c r="T9">
+        <v>0.04058709060698086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3380806666666666</v>
+      </c>
+      <c r="H10">
+        <v>1.014242</v>
+      </c>
+      <c r="I10">
+        <v>0.4234616956721602</v>
+      </c>
+      <c r="J10">
+        <v>0.4234616956721601</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.048107</v>
+      </c>
+      <c r="N10">
+        <v>9.144321</v>
+      </c>
+      <c r="O10">
+        <v>0.8441222069549942</v>
+      </c>
+      <c r="P10">
+        <v>0.8441222069549942</v>
+      </c>
+      <c r="Q10">
+        <v>1.030506046631333</v>
+      </c>
+      <c r="R10">
+        <v>9.274554419681998</v>
+      </c>
+      <c r="S10">
+        <v>0.357453421111688</v>
+      </c>
+      <c r="T10">
+        <v>0.3574534211116879</v>
       </c>
     </row>
   </sheetData>
